--- a/Spatial/PDFs/plot_Vars_wrt_centers_AD_15_Data_all_zMIs.xlsx
+++ b/Spatial/PDFs/plot_Vars_wrt_centers_AD_15_Data_all_zMIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F794F3AE-0231-4696-853D-6BAC7A1E6A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85C1C6BD-873C-4D47-A0BE-D025ACF00994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{9C524A7A-98C9-4ADA-8E24-99D1395360CA}"/>
   </bookViews>
@@ -35,18 +35,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Group</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
+    <t>C1B1</t>
+  </si>
+  <si>
+    <t>C1B2</t>
+  </si>
+  <si>
+    <t>C1B3</t>
+  </si>
+  <si>
+    <t>C1B4</t>
+  </si>
+  <si>
+    <t>C2B1</t>
+  </si>
+  <si>
+    <t>C2B2</t>
+  </si>
+  <si>
+    <t>C2B3</t>
+  </si>
+  <si>
+    <t>C2B4</t>
+  </si>
+  <si>
+    <t>C3B1</t>
+  </si>
+  <si>
+    <t>C3B2</t>
+  </si>
+  <si>
+    <t>C3B3</t>
+  </si>
+  <si>
+    <t>C3B4</t>
   </si>
 </sst>
 </file>
@@ -398,18 +425,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9CBEB2-6AAC-4701-AA69-0A91976CA92C}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,187 +448,502 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.7354266292331726</v>
+        <v>5.1617237730925192</v>
       </c>
       <c r="C2">
-        <v>1.166403219385943</v>
+        <v>4.438314702262927</v>
       </c>
       <c r="D2">
-        <v>1.369263776772228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.8518947726472943</v>
+      </c>
+      <c r="E2">
+        <v>3.7767664636955223</v>
+      </c>
+      <c r="F2">
+        <v>8.3652310747027165</v>
+      </c>
+      <c r="G2">
+        <v>3.7362911753591326</v>
+      </c>
+      <c r="H2">
+        <v>4.2775537169115045</v>
+      </c>
+      <c r="J2">
+        <v>9.5893469683374288</v>
+      </c>
+      <c r="K2">
+        <v>4.8303623907561262</v>
+      </c>
+      <c r="L2">
+        <v>4.8082440079106989</v>
+      </c>
+      <c r="M2">
+        <v>3.541082388589051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.93539653040475867</v>
+        <v>4.7061582835862525</v>
       </c>
       <c r="C3">
-        <v>2.2723402992213999</v>
-      </c>
-      <c r="D3">
-        <v>2.4202204800461229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.6441894435115185</v>
+      </c>
+      <c r="E3">
+        <v>3.6640710397168101</v>
+      </c>
+      <c r="F3">
+        <v>6.0617880512216251</v>
+      </c>
+      <c r="G3">
+        <v>4.4909680854034688</v>
+      </c>
+      <c r="H3">
+        <v>4.2142482459131747</v>
+      </c>
+      <c r="I3">
+        <v>4.1607478097323511</v>
+      </c>
+      <c r="J3">
+        <v>5.05321240636657</v>
+      </c>
+      <c r="K3">
+        <v>4.5989404125505109</v>
+      </c>
+      <c r="L3">
+        <v>4.485940075627795</v>
+      </c>
+      <c r="M3">
+        <v>4.463683643812141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>-2.0709650882554023E-2</v>
+        <v>4.2654201555749944</v>
       </c>
       <c r="C4">
-        <v>0.21395241602450005</v>
-      </c>
-      <c r="D4">
-        <v>0.11862495671941062</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.06810452947024</v>
+      </c>
+      <c r="F4">
+        <v>3.888511757483982</v>
+      </c>
+      <c r="G4">
+        <v>5.9021083158860517</v>
+      </c>
+      <c r="H4">
+        <v>3.6670018051505004</v>
+      </c>
+      <c r="I4">
+        <v>3.4445691780164376</v>
+      </c>
+      <c r="J4">
+        <v>4.5040774450111085</v>
+      </c>
+      <c r="K4">
+        <v>5.5748011963389397</v>
+      </c>
+      <c r="L4">
+        <v>3.5951193839677154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1.9957719037712953</v>
+        <v>4.9939050133207914</v>
       </c>
       <c r="C5">
-        <v>1.7458967865003696</v>
+        <v>4.164589612994444</v>
       </c>
       <c r="D5">
-        <v>1.5150180731994478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.2702130171436394</v>
+      </c>
+      <c r="E5">
+        <v>3.5924932738960784</v>
+      </c>
+      <c r="F5">
+        <v>5.3857082372192924</v>
+      </c>
+      <c r="G5">
+        <v>3.1904656301567575</v>
+      </c>
+      <c r="H5">
+        <v>4.0709560441702992</v>
+      </c>
+      <c r="I5">
+        <v>6.3849986008662523</v>
+      </c>
+      <c r="J5">
+        <v>4.7122688034675946</v>
+      </c>
+      <c r="K5">
+        <v>3.3206848528920103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1.3231125399232311</v>
+        <v>5.4871561678243443</v>
       </c>
       <c r="C6">
-        <v>0.6921835981626866</v>
-      </c>
-      <c r="D6">
-        <v>2.4677508109802222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.7814675849520185</v>
+      </c>
+      <c r="E6">
+        <v>3.387513620151485</v>
+      </c>
+      <c r="F6">
+        <v>4.062961675358042</v>
+      </c>
+      <c r="H6">
+        <v>3.8926699205874136</v>
+      </c>
+      <c r="I6">
+        <v>3.6627010433792444</v>
+      </c>
+      <c r="J6">
+        <v>11.631873368934585</v>
+      </c>
+      <c r="K6">
+        <v>5.5635356965222531</v>
+      </c>
+      <c r="L6">
+        <v>4.1959681632594457</v>
+      </c>
+      <c r="M6">
+        <v>6.2696078725649711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1.8156280586073359</v>
+        <v>7.3577044976963446</v>
       </c>
       <c r="C7">
-        <v>3.0279614998616751</v>
+        <v>4.3730084628671806</v>
       </c>
       <c r="D7">
-        <v>1.5904326872930343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.4656405778498094</v>
+      </c>
+      <c r="E7">
+        <v>3.243386739509333</v>
+      </c>
+      <c r="F7">
+        <v>12.495096040955351</v>
+      </c>
+      <c r="G7">
+        <v>10.313529514668589</v>
+      </c>
+      <c r="H7">
+        <v>3.8517554182059484</v>
+      </c>
+      <c r="I7">
+        <v>4.3420633666390716</v>
+      </c>
+      <c r="J7">
+        <v>8.5593946153411729</v>
+      </c>
+      <c r="K7">
+        <v>3.4150597742394906</v>
+      </c>
+      <c r="L7">
+        <v>3.0380134358359219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1.0387851668824764</v>
+        <v>5.4366025315937252</v>
       </c>
       <c r="C8">
-        <v>1.7263041784629702</v>
+        <v>5.5620058305655622</v>
       </c>
       <c r="D8">
-        <v>1.8031586202018099</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.7650736941077856</v>
+      </c>
+      <c r="E8">
+        <v>3.005608496135594</v>
+      </c>
+      <c r="F8">
+        <v>7.5154084585617733</v>
+      </c>
+      <c r="G8">
+        <v>6.1023743779663802</v>
+      </c>
+      <c r="H8">
+        <v>5.7869753413552774</v>
+      </c>
+      <c r="I8">
+        <v>5.1993868018033504</v>
+      </c>
+      <c r="J8">
+        <v>6.5901982552707601</v>
+      </c>
+      <c r="K8">
+        <v>5.2295516089699872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.72607787215025776</v>
+        <v>5.3912786573744622</v>
       </c>
       <c r="C9">
-        <v>1.9910568686025685</v>
+        <v>5.1664416867458387</v>
       </c>
       <c r="D9">
-        <v>2.0567244830654268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.2229277002108052</v>
+      </c>
+      <c r="F9">
+        <v>7.7409710123923388</v>
+      </c>
+      <c r="G9">
+        <v>7.0399906805338262</v>
+      </c>
+      <c r="H9">
+        <v>4.6444613260653442</v>
+      </c>
+      <c r="I9">
+        <v>5.3685637637273826</v>
+      </c>
+      <c r="J9">
+        <v>7.7155486711776744</v>
+      </c>
+      <c r="K9">
+        <v>8.2215983920762703</v>
+      </c>
+      <c r="L9">
+        <v>6.2818905391012967</v>
+      </c>
+      <c r="M9">
+        <v>4.735109272186806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.75898589908779046</v>
+        <v>5.9380623344540613</v>
       </c>
       <c r="C10">
-        <v>2.9228004702968584</v>
-      </c>
-      <c r="D10">
-        <v>3.483703263804756</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.9200380515574995</v>
+      </c>
+      <c r="E10">
+        <v>3.1121478705210963</v>
+      </c>
+      <c r="F10">
+        <v>9.9291417027214042</v>
+      </c>
+      <c r="G10">
+        <v>10.277572617993176</v>
+      </c>
+      <c r="H10">
+        <v>7.6485744653136454</v>
+      </c>
+      <c r="I10">
+        <v>5.0455398767024464</v>
+      </c>
+      <c r="J10">
+        <v>11.693159755429546</v>
+      </c>
+      <c r="K10">
+        <v>9.8140162898101853</v>
+      </c>
+      <c r="L10">
+        <v>9.2186986300662532</v>
+      </c>
+      <c r="M10">
+        <v>7.7001888000232519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>2.2094197230949937</v>
-      </c>
-      <c r="C11">
-        <v>2.716902218405981</v>
+        <v>10.559060452426285</v>
       </c>
       <c r="D11">
-        <v>3.0836677919516386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.9867056743075713</v>
+      </c>
+      <c r="F11">
+        <v>10.932948314967094</v>
+      </c>
+      <c r="G11">
+        <v>3.8765580767172816</v>
+      </c>
+      <c r="J11">
+        <v>12.708329360683875</v>
+      </c>
+      <c r="K11">
+        <v>7.0410344309202024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12">
-        <v>1.6789462157397856</v>
+        <v>9.887991832083447</v>
       </c>
       <c r="C12">
-        <v>2.6141377378029351</v>
+        <v>5.2567194960018409</v>
       </c>
       <c r="D12">
-        <v>2.7131577358735672</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.9417529045329718</v>
+      </c>
+      <c r="E12">
+        <v>3.4884560765822661</v>
+      </c>
+      <c r="F12">
+        <v>10.996866896748786</v>
+      </c>
+      <c r="G12">
+        <v>7.5071291456946661</v>
+      </c>
+      <c r="H12">
+        <v>7.7080457439043153</v>
+      </c>
+      <c r="I12">
+        <v>7.1849818691559788</v>
+      </c>
+      <c r="J12">
+        <v>13.145908246716912</v>
+      </c>
+      <c r="K12">
+        <v>6.5208486922860622</v>
+      </c>
+      <c r="L12">
+        <v>7.206826216502205</v>
+      </c>
+      <c r="M12">
+        <v>6.0368706525499025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
-        <v>0.63847492097804059</v>
+        <v>4.416022442163607</v>
       </c>
       <c r="C13">
-        <v>1.1987236004762047</v>
+        <v>3.050662085009666</v>
       </c>
       <c r="D13">
-        <v>2.3684096173559417</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.540388759964165</v>
+      </c>
+      <c r="E13">
+        <v>3.1254090518619724</v>
+      </c>
+      <c r="F13">
+        <v>3.7820394773036812</v>
+      </c>
+      <c r="G13">
+        <v>4.1208375294480799</v>
+      </c>
+      <c r="H13">
+        <v>4.5472947016195766</v>
+      </c>
+      <c r="I13">
+        <v>3.3000649560932662</v>
+      </c>
+      <c r="J13">
+        <v>4.0658449203973106</v>
+      </c>
+      <c r="K13">
+        <v>3.8375069165627353</v>
+      </c>
+      <c r="L13">
+        <v>3.6730145031096484</v>
+      </c>
+      <c r="M13">
+        <v>3.9456624897194379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>0.66051078427028131</v>
+        <v>5.0214949864578591</v>
       </c>
       <c r="C14">
-        <v>0.97209690505315771</v>
-      </c>
-      <c r="D14">
-        <v>0.99572428690351722</v>
+        <v>3.6241584183224971</v>
+      </c>
+      <c r="E14">
+        <v>3.5055510327369426</v>
+      </c>
+      <c r="F14">
+        <v>4.9730966723081984</v>
+      </c>
+      <c r="G14">
+        <v>4.1929267522894564</v>
+      </c>
+      <c r="H14">
+        <v>3.9324873953918336</v>
+      </c>
+      <c r="I14">
+        <v>4.9471914742957361</v>
+      </c>
+      <c r="J14">
+        <v>3.4917753108831784</v>
+      </c>
+      <c r="K14">
+        <v>4.3355953829105545</v>
+      </c>
+      <c r="L14">
+        <v>3.0438808402043467</v>
+      </c>
+      <c r="M14">
+        <v>3.9059897477010543</v>
       </c>
     </row>
   </sheetData>
